--- a/statistiche/RandomForestClassificationReport.xlsx
+++ b/statistiche/RandomForestClassificationReport.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8616773442050087</v>
+        <v>0.8621860149355057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1509872241579559</v>
+        <v>0.1424521615875266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7192083818393481</v>
+        <v>0.3892898719441211</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5063322841814824</v>
+        <v>0.5023190882615162</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7615684914393588</v>
+        <v>0.7608032486315411</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8018970189701897</v>
+        <v>0.3441734417344173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2148760330578512</v>
+        <v>0.6644628099173554</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7192083818393481</v>
+        <v>0.3892898719441211</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5083865260140205</v>
+        <v>0.5043181258258864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7192083818393481</v>
+        <v>0.3892898719441211</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8307130825379001</v>
+        <v>0.4919620375750532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1773533424283765</v>
+        <v>0.2346075284505398</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7192083818393481</v>
+        <v>0.3892898719441211</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5040332124831384</v>
+        <v>0.3632847830127965</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7386798711837065</v>
+        <v>0.4557107039265479</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7192083818393481</v>
+        <v>0.3892898719441211</v>
       </c>
       <c r="E5" t="n">
         <v>4295</v>

--- a/statistiche/RandomForestClassificationReport.xlsx
+++ b/statistiche/RandomForestClassificationReport.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8621860149355057</v>
+        <v>0.8645336963921034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1424521615875266</v>
+        <v>0.1436659589525832</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3892898719441211</v>
+        <v>0.390221187427241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5023190882615162</v>
+        <v>0.5040998276723433</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7608032486315411</v>
+        <v>0.7629912095117986</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>0.3441734417344173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6644628099173554</v>
+        <v>0.6710743801652893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3892898719441211</v>
+        <v>0.390221187427241</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5043181258258864</v>
+        <v>0.5076239109498533</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3892898719441211</v>
+        <v>0.390221187427241</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4919620375750532</v>
+        <v>0.4923434774181043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2346075284505398</v>
+        <v>0.2366656951326144</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3892898719441211</v>
+        <v>0.390221187427241</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3632847830127965</v>
+        <v>0.3645045862753594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4557107039265479</v>
+        <v>0.4563283299716034</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3892898719441211</v>
+        <v>0.390221187427241</v>
       </c>
       <c r="E5" t="n">
         <v>4295</v>

--- a/statistiche/RandomForestClassificationReport.xlsx
+++ b/statistiche/RandomForestClassificationReport.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8645336963921034</v>
+        <v>0.7267377304019542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436659589525832</v>
+        <v>0.6032561477732029</v>
       </c>
       <c r="D2" t="n">
-        <v>0.390221187427241</v>
+        <v>0.6212067407024794</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5040998276723433</v>
+        <v>0.6649969390875785</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7629912095117986</v>
+        <v>0.6581702923206707</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3441734417344173</v>
+        <v>0.2375594352292113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6710743801652893</v>
+        <v>0.9284613819365716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390221187427241</v>
+        <v>0.6212067407024794</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5076239109498533</v>
+        <v>0.5830104085828914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.390221187427241</v>
+        <v>0.6212067407024794</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4923434774181043</v>
+        <v>0.3580709576825232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2366656951326144</v>
+        <v>0.7313359359794841</v>
       </c>
       <c r="D4" t="n">
-        <v>0.390221187427241</v>
+        <v>0.6212067407024794</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3645045862753594</v>
+        <v>0.5447034468310037</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4563283299716034</v>
+        <v>0.5653393028270504</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3690</v>
+        <v>27551</v>
       </c>
       <c r="C5" t="n">
-        <v>605</v>
+        <v>34401</v>
       </c>
       <c r="D5" t="n">
-        <v>0.390221187427241</v>
+        <v>0.6212067407024794</v>
       </c>
       <c r="E5" t="n">
-        <v>4295</v>
+        <v>61952</v>
       </c>
       <c r="F5" t="n">
-        <v>4295</v>
+        <v>61952</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/RandomForestClassificationReport.xlsx
+++ b/statistiche/RandomForestClassificationReport.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7267377304019542</v>
+        <v>0.7250360190623961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6032561477732029</v>
+        <v>0.6030720399025109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6212067407024794</v>
+        <v>0.62083548553719</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6649969390875785</v>
+        <v>0.6640540294824535</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6581702923206707</v>
+        <v>0.65731128302354</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2375594352292113</v>
+        <v>0.2374505462596639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9284613819365716</v>
+        <v>0.9278800034882707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6212067407024794</v>
+        <v>0.62083548553719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5830104085828914</v>
+        <v>0.5826652748739674</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6212067407024794</v>
+        <v>0.62083548553719</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3580709576825232</v>
+        <v>0.3577404713731066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7313359359794841</v>
+        <v>0.7310202679491584</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6212067407024794</v>
+        <v>0.62083548553719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5447034468310037</v>
+        <v>0.5443803696611325</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5653393028270504</v>
+        <v>0.5650170448818352</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>34401</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6212067407024794</v>
+        <v>0.62083548553719</v>
       </c>
       <c r="E5" t="n">
         <v>61952</v>
